--- a/AutomationFramework11/src/test/resources/pcat.xlsx
+++ b/AutomationFramework11/src/test/resources/pcat.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8844" windowHeight="1920"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8844" windowHeight="1920" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>iphone</t>
   </si>
@@ -39,6 +40,15 @@
   </si>
   <si>
     <t>linovo</t>
+  </si>
+  <si>
+    <t>Ravindar</t>
+  </si>
+  <si>
+    <t>Kumar</t>
+  </si>
+  <si>
+    <t>Emech Solution pvt ltd</t>
   </si>
 </sst>
 </file>
@@ -358,7 +368,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -392,4 +402,37 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>